--- a/dbInittool/excels/User.xlsx
+++ b/dbInittool/excels/User.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/endo/Documents/develop/mydev/PickNic/dbInittool/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E75D111-96FE-CB4D-9EA8-0BA5E82FF778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F068DBBC-F1E1-2440-A24C-3DD6A2765ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="740" windowWidth="28300" windowHeight="17260" xr2:uid="{061A00EB-170A-DA48-BAF9-591EDA05AA24}"/>
   </bookViews>
@@ -36,13 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>isAccessed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>webId</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -427,23 +431,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F954DA51-8515-2943-97B5-75BFE73CF9F8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="B2">
         <v>0</v>
       </c>
